--- a/biology/Zoologie/Euoniticellus/Euoniticellus.xlsx
+++ b/biology/Zoologie/Euoniticellus/Euoniticellus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euoniticellus est un genre d'insectes coléoptères de la super-famille des scarabées, de la famille des Scarabaeidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euoniticellus est un genre d'insectes coléoptères de la super-famille des scarabées, de la famille des Scarabaeidae.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Listes d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Fauna Europaea                                      (27 mai 2022)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Fauna Europaea                                      (27 mai 2022) :
 Euoniticellus fulvus
 Euoniticellus pallens
 Euoniticellus pallipes
-Selon Catalogue of Life                                   (27 mai 2022)[3] :
+Selon Catalogue of Life                                   (27 mai 2022) :
 Euoniticellus africanus
 Euoniticellus cambeforti
 Euoniticellus capnus
@@ -537,7 +551,7 @@
 Euoniticellus triangulatus
 Euoniticellus wittei
 Euoniticellus zumpti
-Selon ITIS      (8 nov. 2013)[4] :
+Selon ITIS      (8 nov. 2013) :
 Euoniticellus africanus (Harold, 1873)
 Euoniticellus cubiensis (Laporte, 1840)
 Euoniticellus intermedius (Reiche, 1849)</t>
